--- a/biology/Botanique/Eucalyptus_goniocalyx/Eucalyptus_goniocalyx.xlsx
+++ b/biology/Botanique/Eucalyptus_goniocalyx/Eucalyptus_goniocalyx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Eucalyptus goniocalyx est une espèce d'eucalyptus australien de taille petite à moyenne (8 à 20 mètres) avec une écorce rugueuse et persistante jusqu'aux petites branches. L'écorce est fibreuse, grisâtre, devenant profondément fissurée, épaisse et velue dans les plus vieux arbres.
 Les feuilles adultes sont pétiolées, lancéolées de 20 cm de long sur 3 cm de large, concolores et vertes.
